--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/fm.menu.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/fm.menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CCA257-5405-B940-93A3-7BBC6CDB30DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B1108D-3238-D343-AD38-BFC7C561A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="66740" yWindow="-4280" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -200,22 +200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero.fm.mute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哑房入账</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wallet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/fm/virtual</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ordered-list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,9 +232,6 @@
   </si>
   <si>
     <t>cd179c46-c825-4380-b202-111d24f9e826</t>
-  </si>
-  <si>
-    <t>de022299-b6a7-4a89-a6aa-6d3b3d7221e3</t>
   </si>
   <si>
     <t>152dc989-4f10-41bc-9a3c-fe990cd79d63</t>
@@ -490,11 +471,11 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:J15"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -839,16 +820,16 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -916,7 +897,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
@@ -944,7 +925,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
@@ -966,7 +947,7 @@
         <v>45</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>47</v>
@@ -975,7 +956,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$5</f>
@@ -991,13 +972,13 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>51</v>
@@ -1006,7 +987,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>A$5</f>
@@ -1022,145 +1003,145 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="H8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="8" t="str">
-        <f>A$5</f>
-        <v>81fd10e1-61a7-4455-be4a-3fef4af9d5b9</v>
+        <v>71</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="16">
-        <v>1020</v>
+        <v>1300</v>
       </c>
       <c r="E9" s="19">
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>A$9</f>
+        <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="16">
-        <v>1300</v>
-      </c>
-      <c r="E10" s="19">
-        <v>2</v>
+        <v>1005</v>
+      </c>
+      <c r="E10" s="20">
+        <v>3</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>21</v>
+        <v>28</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" s="8" t="str">
-        <f>A$10</f>
+        <f t="shared" ref="B11:B14" si="0">A$9</f>
         <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="16">
-        <v>1005</v>
-      </c>
-      <c r="E11" s="21">
+        <v>1010</v>
+      </c>
+      <c r="E11" s="20">
         <v>3</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f t="shared" ref="B12:B15" si="0">A$10</f>
+        <f t="shared" si="0"/>
         <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="16">
-        <v>1010</v>
-      </c>
-      <c r="E12" s="21">
+        <v>1015</v>
+      </c>
+      <c r="E12" s="20">
         <v>3</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1170,28 +1151,28 @@
         <v>22</v>
       </c>
       <c r="D13" s="16">
-        <v>1015</v>
-      </c>
-      <c r="E13" s="21">
+        <v>1020</v>
+      </c>
+      <c r="E13" s="20">
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1201,55 +1182,24 @@
         <v>22</v>
       </c>
       <c r="D14" s="16">
-        <v>1020</v>
-      </c>
-      <c r="E14" s="21">
+        <v>1025</v>
+      </c>
+      <c r="E14" s="20">
         <v>3</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1025</v>
-      </c>
-      <c r="E15" s="21">
-        <v>3</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/fm.menu.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/fm.menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B1108D-3238-D343-AD38-BFC7C561A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90410521-78CF-CD4F-8A64-C92C85B331FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="66740" yWindow="-4280" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -173,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/fm/unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>zero.fm.account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -284,6 +282,10 @@
   </si>
   <si>
     <t>fd00f47b-42f3-4995-8ff3-2aa74628afb9</t>
+  </si>
+  <si>
+    <t>/ambient/tabular/fm.unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -794,7 +796,7 @@
   <dimension ref="A2:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -897,7 +899,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="13" t="s">
@@ -910,10 +912,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>31</v>
@@ -925,7 +927,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>A$5</f>
@@ -941,22 +943,22 @@
         <v>2</v>
       </c>
       <c r="F6" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>45</v>
-      </c>
       <c r="H6" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8" t="str">
         <f>A$5</f>
@@ -972,22 +974,22 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="H7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="8" t="str">
         <f>A$5</f>
@@ -1003,22 +1005,22 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>26</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>25</v>
@@ -1033,10 +1035,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>31</v>
@@ -1048,7 +1050,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>A$9</f>
@@ -1064,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>27</v>
@@ -1079,7 +1081,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" ref="B11:B14" si="0">A$9</f>
@@ -1095,7 +1097,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="14" t="s">
         <v>30</v>
@@ -1110,7 +1112,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1126,7 +1128,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G12" s="14" t="s">
         <v>33</v>
@@ -1141,7 +1143,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1157,7 +1159,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="14" t="s">
         <v>36</v>
@@ -1172,7 +1174,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1188,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>39</v>
@@ -1197,7 +1199,7 @@
         <v>40</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="J14" s="13"/>
     </row>

--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/fm.menu.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/fm.menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90410521-78CF-CD4F-8A64-C92C85B331FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81D72B4-6273-4249-B4FB-24368ACF987A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="66740" yWindow="-4280" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -285,6 +285,44 @@
   </si>
   <si>
     <t>/ambient/tabular/fm.unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5b437ca5-830d-45f6-a805-25207baea720</t>
+  </si>
+  <si>
+    <t>71c75e12-fe2c-427a-8446-4b20ffa7e6e7</t>
+  </si>
+  <si>
+    <t>退款处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.fm.settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zero.fm.refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fm/refund</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fm/settlement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file-done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dollar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CE16B6-AAB7-164E-9110-1CA8A0C9AC3E}">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -974,16 +1012,16 @@
         <v>2</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J7" s="13"/>
     </row>
@@ -1005,203 +1043,265 @@
         <v>2</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f t="shared" ref="B9:B10" si="0">A$5</f>
+        <v>81fd10e1-61a7-4455-be4a-3fef4af9d5b9</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="16">
-        <v>1300</v>
+        <v>1020</v>
       </c>
       <c r="E9" s="19">
         <v>2</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>21</v>
+        <v>80</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>77</v>
       </c>
       <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B10" s="8" t="str">
-        <f>A$9</f>
-        <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
+        <f t="shared" si="0"/>
+        <v>81fd10e1-61a7-4455-be4a-3fef4af9d5b9</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="16">
-        <v>1005</v>
-      </c>
-      <c r="E10" s="20">
-        <v>3</v>
+        <v>1025</v>
+      </c>
+      <c r="E10" s="19">
+        <v>2</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="8" t="str">
-        <f t="shared" ref="B11:B14" si="0">A$9</f>
-        <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
+        <v>70</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="16">
-        <v>1010</v>
-      </c>
-      <c r="E11" s="20">
-        <v>3</v>
+        <v>1300</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>32</v>
+      <c r="I11" s="15" t="s">
+        <v>21</v>
       </c>
       <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f>A$11</f>
         <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="16">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="E12" s="20">
         <v>3</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B13:B16" si="1">A$11</f>
         <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="16">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E13" s="20">
         <v>3</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B14" s="8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="16">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="E14" s="20">
         <v>3</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1020</v>
+      </c>
+      <c r="E15" s="20">
+        <v>3</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>fd00f47b-42f3-4995-8ff3-2aa74628afb9</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1025</v>
+      </c>
+      <c r="E16" s="20">
+        <v>3</v>
+      </c>
+      <c r="F16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="13"/>
+      <c r="J16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
